--- a/resume_list.xlsx
+++ b/resume_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,82 @@
   </si>
   <si>
     <t>月薪要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王维香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广州影子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试/配置管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周面试老总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有多个offer，广州，可先到新兴,需要跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯品会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出差，在广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +207,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +244,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,23 +543,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="30.5" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="3" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,19 +573,25 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -514,19 +605,25 @@
         <v>13</v>
       </c>
       <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
         <v>15622778834</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -539,11 +636,89 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
         <v>15521228761</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3">
+        <v>13560334247</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>18826458463</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/resume_list.xlsx
+++ b/resume_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,47 +105,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自动化测试/配置管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周面试老总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有多个offer，广州，可先到新兴,需要跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯品会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>本科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动化测试/配置管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周面试老总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有多个offer，广州，可先到新兴,需要跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯品会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西大学</t>
+    <t>自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肇庆学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出差，在广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄锦平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳师范大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,27 +221,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肇庆学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不出差，在广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22w/年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-16月，五险一金</t>
+  </si>
+  <si>
+    <t>13-17月，五险一金</t>
+  </si>
+  <si>
+    <t>13-18月，五险一金</t>
+  </si>
+  <si>
+    <t>13-19月，五险一金</t>
+  </si>
+  <si>
+    <t>13-20月，五险一金</t>
+  </si>
+  <si>
+    <t>13-21月，五险一金</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +282,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -236,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +339,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,23 +644,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="30.5" customWidth="1"/>
+    <col min="12" max="12" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,155 +674,234 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15622778834</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15521228761</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="14.25">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13560334247</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>15622778834</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>18826458463</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>15521228761</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
+    <row r="6" spans="1:13" s="3" customFormat="1">
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13560334247</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>18120587045</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>18826458463</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
+      <c r="G8" s="6">
+        <v>13430312340</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
